--- a/Base/Teams/Football Team/Players Yards Data.xlsx
+++ b/Base/Teams/Football Team/Players Yards Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="20">
   <si>
     <t>T.Heinicke</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>D.Milne</t>
+  </si>
+  <si>
+    <t>W.Smallwood</t>
   </si>
   <si>
     <t>L.Thomas</t>
@@ -429,13 +432,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,61 +490,67 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="S2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -551,13 +560,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,61 +618,67 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="S2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Football Team/Players Yards Data.xlsx
+++ b/Base/Teams/Football Team/Players Yards Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="21">
   <si>
     <t>T.Heinicke</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>J.Patterson</t>
+  </si>
+  <si>
+    <t>J.Williams</t>
   </si>
   <si>
     <t>T.McLaurin</t>
@@ -432,13 +435,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,64 +496,70 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -560,13 +569,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,64 +630,70 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Football Team/Players Yards Data.xlsx
+++ b/Base/Teams/Football Team/Players Yards Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="22">
   <si>
     <t>T.Heinicke</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>K.Allen</t>
+  </si>
+  <si>
+    <t>G.Gilbert</t>
   </si>
   <si>
     <t>A.Gibson</t>
@@ -435,13 +438,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,67 +502,73 @@
       <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="U2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -569,13 +578,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,67 +642,73 @@
       <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="U2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
